--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_8.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_8.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999975732868583</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6760507188859979</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999755047440642</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999976600891847</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999762482303836</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G2" t="n">
-        <v>1.440601749461858e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1923102871495661</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I2" t="n">
-        <v>4.927563176125229e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J2" t="n">
-        <v>4.076196650113026e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K2" t="n">
-        <v>4.501879913119127e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003066682938582437</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001200250702754161</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N2" t="n">
-        <v>1.0000015740842</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001251347860031881</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P2" t="n">
-        <v>148.9008993001876</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.2523246171479</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999975733217529</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.676050711442566</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999755064832118</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999976599624864</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999976248557482</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G3" t="n">
-        <v>1.440581034566895e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1923102915683087</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I3" t="n">
-        <v>4.927213322263918e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J3" t="n">
-        <v>4.076417362459485e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K3" t="n">
-        <v>4.501817915291255e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003066113403167228</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001200242073319751</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001574061566</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001251338863224582</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9009280590641</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.2523533760244</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_12</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G4" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I4" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J4" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K4" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P4" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q4" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_22</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G5" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I5" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J5" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K5" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P5" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q5" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_21</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G6" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I6" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J6" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K6" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P6" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q6" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G7" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I7" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J7" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K7" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P7" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q7" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G8" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I8" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J8" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K8" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P8" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_18</t>
+          <t>model_4_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G9" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I9" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J9" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K9" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P9" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q9" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G10" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I10" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J10" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K10" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P10" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q10" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_16</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G11" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I11" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J11" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K11" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P11" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G12" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I12" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J12" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K12" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P12" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G13" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I13" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J13" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K13" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P13" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q13" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G14" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I14" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J14" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K14" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P14" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_24</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G15" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I15" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J15" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K15" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P15" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q15" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G16" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I16" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J16" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K16" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P16" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q16" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G17" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I17" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J17" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K17" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P17" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G18" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I18" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J18" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K18" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P18" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q18" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G19" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I19" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J19" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K19" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P19" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G20" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I20" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J20" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K20" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P20" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G21" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I21" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J21" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K21" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P21" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q21" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G22" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I22" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J22" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K22" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P22" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_23</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999975731087714</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6760506779894961</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999975498828753</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999766039257996</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999762472853311</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G23" t="n">
-        <v>1.440707469570967e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1923103114274961</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I23" t="n">
-        <v>4.928753123637465e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J23" t="n">
-        <v>4.075668126235861e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K23" t="n">
-        <v>4.502059037146332e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000306668777866626</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001200294742790689</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000001574199716</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001251393774943939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P23" t="n">
-        <v>148.9007525334214</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q23" t="n">
-        <v>223.2521778503816</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999975730544358</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6760506586516428</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999755028636517</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999765981119281</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999762459550128</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G24" t="n">
-        <v>1.440739725495331e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1923103229072812</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I24" t="n">
-        <v>4.927941447371846e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J24" t="n">
-        <v>4.076680920549991e-06</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K24" t="n">
-        <v>4.502311183960919e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003066709047116905</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001200308179383666</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000001574234961</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001251407783560497</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P24" t="n">
-        <v>148.900707756027</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q24" t="n">
-        <v>223.2521330729872</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_0</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999874375144702</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6759270771400883</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999915540657397</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999975080254707</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999943728452181</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G25" t="n">
-        <v>7.457634081611641e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1923836862309833</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I25" t="n">
-        <v>1.699017750939316e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J25" t="n">
-        <v>4.341096319491675e-07</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K25" t="n">
-        <v>1.066563691444242e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004408264543033413</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002730866910270737</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000008148639263</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002847125568314784</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P25" t="n">
-        <v>145.6125446825749</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q25" t="n">
-        <v>219.9639699995352</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999874375144702</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6759270761647325</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999915540657397</v>
+        <v>-0.6284804215699207</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999975080254707</v>
+        <v>0.994007028627763</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999943728452181</v>
+        <v>0.4605777367007629</v>
       </c>
       <c r="G26" t="n">
-        <v>7.457634081611641e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1923836868099966</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I26" t="n">
-        <v>1.699017750939316e-06</v>
+        <v>0.4122475988555908</v>
       </c>
       <c r="J26" t="n">
-        <v>4.341096319491675e-07</v>
+        <v>0.003008683658732021</v>
       </c>
       <c r="K26" t="n">
-        <v>1.066563691444242e-06</v>
+        <v>0.2076281412571614</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004408264543033413</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002730866910270737</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000008148639263</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002847125568314784</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P26" t="n">
-        <v>145.6125446825749</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q26" t="n">
-        <v>219.9639699995352</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
   </sheetData>
